--- a/public/data/yugi.xlsx
+++ b/public/data/yugi.xlsx
@@ -377,10 +377,10 @@
     <t>Number 35: Ravenous Tarantula - PGL3-EN009 - Gold Secret Rare 1st Edition</t>
   </si>
   <si>
-    <t>Number 38: Hope Harbinger Dragon Titanic Galaxy - PGL3-EN008 -Gold Secret Rare 1st Ed</t>
-  </si>
-  <si>
-    <t>Number 38: Hope Harbinger Dragon Titanic Galaxy - RA02-EN036 Ultra Rare 1st Edition</t>
+    <t>Number 38: Hope Harbinger Dragon Titanic Galaxy - PGL3-EN008 - Gold Secret Rare 1st Ed</t>
+  </si>
+  <si>
+    <t>Number 38: Hope Harbinger Dragon Titanic Galaxy - RA02-EN036 - Ultra Rare 1st Edition</t>
   </si>
   <si>
     <t>Number C39: Utopia Ray - KICO-EN045 - Rare 1st Edition</t>
@@ -1190,7 +1190,7 @@
     <t>Salamangreat Violet Chimera - MP20-EN016 - Common 1st Edition</t>
   </si>
   <si>
-    <t>Starving Venom Predapower Fusion Dragon MP23-EN081 Prismatic Secret Rare 1st Edition</t>
+    <t>Starving Venom Predapower Fusion Dragon - MP23-EN081 - Prismatic Secret Rare 1st Edition</t>
   </si>
   <si>
     <t xml:space="preserve">Cyber End Dragon - SDCS-EN041 - Ultra Rare </t>
@@ -1358,7 +1358,7 @@
     <t>The Sacred Waters in the Sky - GFP2-EN013 - Ultra Rare 1st Edition</t>
   </si>
   <si>
-    <t>Sky Dragoons of Draconia- CORE-ENSP1- Ultra Rare Limited Edition</t>
+    <t>Sky Dragoons of Draconia - CORE-ENSP1 - Ultra Rare Limited Edition</t>
   </si>
   <si>
     <t>Tiger Dragon - LCKC-EN069 - Ultra Rare 1st Edition</t>
@@ -5487,7 +5487,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C123" s="4">
@@ -5495,7 +5495,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C124" s="4">
@@ -7663,7 +7663,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="B395" s="3" t="s">
+      <c r="B395" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C395" s="4">
@@ -8111,7 +8111,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="B451" s="3" t="s">
+      <c r="B451" s="1" t="s">
         <v>448</v>
       </c>
       <c r="C451" s="4">

--- a/public/data/yugi.xlsx
+++ b/public/data/yugi.xlsx
@@ -4,7 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Hoja 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="1405">
   <si>
     <t>Nombre de la Carta</t>
   </si>
@@ -4176,9 +4175,6 @@
   </si>
   <si>
     <t>Ash Blossom &amp; Joyous Spring - SDCB-EN014 - Common 1st Edition</t>
-  </si>
-  <si>
-    <t>-----------------------------------------------------------------------------------------------------------------</t>
   </si>
   <si>
     <t>Knightmare Phoenix - GEIM-EN051 - Rare 1st Edition</t>
@@ -4295,10 +4291,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -15639,192 +15631,380 @@
       </c>
     </row>
     <row r="1392">
-      <c r="B1392" s="3"/>
-      <c r="C1392" s="3"/>
+      <c r="B1392" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1392" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1393">
-      <c r="B1393" s="3"/>
-      <c r="C1393" s="3"/>
+      <c r="B1393" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1393" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1394">
-      <c r="B1394" s="3"/>
-      <c r="C1394" s="3"/>
+      <c r="B1394" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C1394" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1395">
-      <c r="B1395" s="3"/>
-      <c r="C1395" s="3"/>
+      <c r="B1395" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C1395" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1396">
-      <c r="B1396" s="3"/>
-      <c r="C1396" s="3"/>
+      <c r="B1396" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C1396" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1397">
-      <c r="B1397" s="3"/>
-      <c r="C1397" s="3"/>
+      <c r="B1397" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1397" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1398">
-      <c r="B1398" s="3"/>
-      <c r="C1398" s="3"/>
+      <c r="B1398" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C1398" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1399">
-      <c r="B1399" s="3"/>
-      <c r="C1399" s="3"/>
+      <c r="B1399" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1399" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1400">
-      <c r="B1400" s="3"/>
-      <c r="C1400" s="3"/>
+      <c r="B1400" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1400" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1401">
-      <c r="B1401" s="3"/>
-      <c r="C1401" s="3"/>
+      <c r="B1401" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C1401" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1402">
-      <c r="B1402" s="3"/>
-      <c r="C1402" s="3"/>
+      <c r="B1402" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C1402" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1403">
-      <c r="B1403" s="3"/>
-      <c r="C1403" s="3"/>
+      <c r="B1403" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1403" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1404">
-      <c r="B1404" s="3"/>
-      <c r="C1404" s="3"/>
+      <c r="B1404" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C1404" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1405">
-      <c r="B1405" s="3"/>
-      <c r="C1405" s="3"/>
+      <c r="B1405" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1405" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1406">
-      <c r="B1406" s="3"/>
-      <c r="C1406" s="3"/>
+      <c r="B1406" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C1406" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1407">
-      <c r="B1407" s="3"/>
-      <c r="C1407" s="3"/>
+      <c r="B1407" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C1407" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1408">
-      <c r="B1408" s="3"/>
-      <c r="C1408" s="3"/>
+      <c r="B1408" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C1408" s="5">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="1409">
-      <c r="B1409" s="3"/>
-      <c r="C1409" s="3"/>
+      <c r="B1409" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1409" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1410">
-      <c r="B1410" s="3"/>
-      <c r="C1410" s="3"/>
+      <c r="B1410" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1410" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1411">
-      <c r="B1411" s="3"/>
-      <c r="C1411" s="3"/>
+      <c r="B1411" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C1411" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1412">
-      <c r="B1412" s="3"/>
-      <c r="C1412" s="3"/>
+      <c r="B1412" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C1412" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1413">
-      <c r="B1413" s="3"/>
-      <c r="C1413" s="3"/>
+      <c r="B1413" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1413" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1414">
-      <c r="B1414" s="3"/>
-      <c r="C1414" s="3"/>
+      <c r="B1414" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C1414" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1415">
-      <c r="B1415" s="3"/>
-      <c r="C1415" s="3"/>
+      <c r="B1415" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1415" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1416">
-      <c r="B1416" s="3"/>
-      <c r="C1416" s="3"/>
+      <c r="B1416" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1416" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1417">
-      <c r="B1417" s="3"/>
-      <c r="C1417" s="3"/>
+      <c r="B1417" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1417" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1418">
-      <c r="B1418" s="3"/>
-      <c r="C1418" s="3"/>
+      <c r="B1418" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1418" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1419">
-      <c r="B1419" s="3"/>
-      <c r="C1419" s="3"/>
+      <c r="B1419" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C1419" s="5">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="1420">
-      <c r="B1420" s="3"/>
-      <c r="C1420" s="3"/>
+      <c r="B1420" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C1420" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1421">
-      <c r="B1421" s="3"/>
-      <c r="C1421" s="3"/>
+      <c r="B1421" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C1421" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1422">
-      <c r="B1422" s="3"/>
-      <c r="C1422" s="3"/>
+      <c r="B1422" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C1422" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1423">
-      <c r="B1423" s="3"/>
-      <c r="C1423" s="3"/>
+      <c r="B1423" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C1423" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1424">
-      <c r="B1424" s="3"/>
-      <c r="C1424" s="3"/>
+      <c r="B1424" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C1424" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1425">
-      <c r="B1425" s="3"/>
-      <c r="C1425" s="3"/>
+      <c r="B1425" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C1425" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1426">
-      <c r="B1426" s="3"/>
-      <c r="C1426" s="3"/>
+      <c r="B1426" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1426" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1427">
-      <c r="B1427" s="3"/>
-      <c r="C1427" s="3"/>
+      <c r="B1427" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C1427" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1428">
-      <c r="B1428" s="3"/>
-      <c r="C1428" s="3"/>
+      <c r="B1428" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C1428" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1429">
-      <c r="B1429" s="3"/>
-      <c r="C1429" s="3"/>
+      <c r="B1429" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C1429" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1430">
-      <c r="B1430" s="3"/>
-      <c r="C1430" s="3"/>
+      <c r="B1430" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1430" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1431">
-      <c r="B1431" s="3"/>
-      <c r="C1431" s="3"/>
+      <c r="B1431" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C1431" s="5">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="1432">
-      <c r="B1432" s="3"/>
-      <c r="C1432" s="3"/>
+      <c r="B1432" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C1432" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1433">
-      <c r="B1433" s="3"/>
-      <c r="C1433" s="3"/>
+      <c r="B1433" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C1433" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1434">
-      <c r="B1434" s="3"/>
-      <c r="C1434" s="3"/>
+      <c r="B1434" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1434" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1435">
-      <c r="B1435" s="3"/>
-      <c r="C1435" s="3"/>
+      <c r="B1435" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C1435" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1436">
-      <c r="B1436" s="3"/>
-      <c r="C1436" s="3"/>
+      <c r="B1436" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C1436" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1437">
-      <c r="B1437" s="3"/>
-      <c r="C1437" s="3"/>
+      <c r="B1437" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C1437" s="5">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="1438">
-      <c r="B1438" s="3"/>
-      <c r="C1438" s="3"/>
+      <c r="B1438" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C1438" s="5">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="B1439" s="3"/>
@@ -18097,422 +18277,6 @@
     <row r="2006">
       <c r="B2006" s="3"/>
       <c r="C2006" s="3"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="2.75"/>
-    <col customWidth="1" min="2" max="2" width="64.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="5">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="5" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="5" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="5" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="5" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="5" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="5" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="5" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="5" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="5" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="5" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="5" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="5" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="5" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C29" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C30" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="5" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="5" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C34" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="5" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="5" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C36" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="5" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C38" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="5" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="5" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C41" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="C42" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="5" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C43" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="5" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="5" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="5" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C48" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="5" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C49" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="5" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1.0</v>
-      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
